--- a/medicine/Pharmacie/Jean-Paul_Chiron/Jean-Paul_Chiron.xlsx
+++ b/medicine/Pharmacie/Jean-Paul_Chiron/Jean-Paul_Chiron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Paul Chiron, né le 3 septembre 1947 à Bressuire, est un pharmacien et professeur des universités en bactériologie et virologie.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après des études primaires et secondaires au lycée Saint Joseph de Bressuire (baccalauréat math. élem., 1964), il obtient le diplôme d’État de pharmacien (Tours, 1970), acquiert un doctorat d’université en pharmacie[1], une maîtrise de biologie humaine et un doctorat d’état ès-sciences pharmaceutiques[2].
-Il occupe des fonctions universitaires en tant qu’assistant de bactériologie-virologie à la faculté des sciences pharmaceutiques de Tours. Élève du professeur Philippe Maupas[3] et dans le cadre d’un détachement auprès du ministère français de la coopération (1975-1979), il est nommé assistant puis chef de travaux au laboratoire de bactériologie-virologie de la faculté de médecine et pharmacie de Dakar (Sénégal) pour assurer la responsabilité sur le terrain du programme de recherche franco-sénégalais "Prévention Hépatite-Hépatome[4][source insuffisante].
-En 1979 il est nommé à l'université François Rabelais de Tours[5].
-À la suite de la découverte du vaccin contre l'hépatite B (HB) en 1975 par le Pr Philippe Maupas et al. (Lancet, 1976, i, 1367-1370), le programme de recherche médicale franco-sénégalais "Prévention Hépatite-Hépatome" a occupé une place prépondérante de ses activités scientifiques en tant que responsable sur le terrain (1976-1979)[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après des études primaires et secondaires au lycée Saint Joseph de Bressuire (baccalauréat math. élem., 1964), il obtient le diplôme d’État de pharmacien (Tours, 1970), acquiert un doctorat d’université en pharmacie, une maîtrise de biologie humaine et un doctorat d’état ès-sciences pharmaceutiques.
+Il occupe des fonctions universitaires en tant qu’assistant de bactériologie-virologie à la faculté des sciences pharmaceutiques de Tours. Élève du professeur Philippe Maupas et dans le cadre d’un détachement auprès du ministère français de la coopération (1975-1979), il est nommé assistant puis chef de travaux au laboratoire de bactériologie-virologie de la faculté de médecine et pharmacie de Dakar (Sénégal) pour assurer la responsabilité sur le terrain du programme de recherche franco-sénégalais "Prévention Hépatite-Hépatome[source insuffisante].
+En 1979 il est nommé à l'université François Rabelais de Tours.
+À la suite de la découverte du vaccin contre l'hépatite B (HB) en 1975 par le Pr Philippe Maupas et al. (Lancet, 1976, i, 1367-1370), le programme de recherche médicale franco-sénégalais "Prévention Hépatite-Hépatome" a occupé une place prépondérante de ses activités scientifiques en tant que responsable sur le terrain (1976-1979).
 De 1991 à 1992, il est directeur du Centre Muraz de l'O.C.C.G.E. à Bobo-Dioulasso (Burkina Faso) dans le cadre de la réhabilitation de ce centre de recherche financée par le Ministère français de la Coopération et du Développement.
 </t>
         </is>
@@ -546,7 +560,9 @@
           <t>Publications scientifiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Ledru S, Meda N, Fofana M, Soula G, Bazié AJ, Chiron JP, « Aetiologic study of genitourinary infections in women of child bearing age in Bobo Dioulasso, Burkina Faso, 1992 » Sexually Transmitted Diseases 1996; vol. 33, no 2, p. 151-156
 (en) Coursaget P, Leboulleux D, Soumaré M, Le Cann P, Yvonnet B, Chiron JP, Coll-Seck AM, Diop Mar I, « Twelve year follow-up of hepatitis B immunisation of senegalese infants » J Hepatol. 1994; vol. 21, no 2, p. 250-254
@@ -583,11 +599,13 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Chevalier dans l’Ordre national de la Légion d’honneur (2011)[7]
-Officier dans l'Ordre des Palmes académiques (1995)[8]
-Officier de l'Ordre du Mérite de la République du Sénégal (1985)[9]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Chevalier dans l’Ordre national de la Légion d’honneur (2011)
+Officier dans l'Ordre des Palmes académiques (1995)
+Officier de l'Ordre du Mérite de la République du Sénégal (1985)</t>
         </is>
       </c>
     </row>
